--- a/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:32:57+00:00</t>
+    <t>2024-04-30T14:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-30T14:33:35+00:00</t>
+    <t>2024-05-02T07:44:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-02T07:44:53+00:00</t>
+    <t>2024-05-03T07:57:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T07:57:36+00:00</t>
+    <t>2024-05-28T08:41:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T08:41:18+00:00</t>
+    <t>2024-05-28T14:01:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0-ballot</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:01:49+00:00</t>
+    <t>2024-05-29T09:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T09:54:05+00:00</t>
+    <t>2024-05-29T09:54:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:03:18+00:00</t>
+    <t>2024-06-03T14:20:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T14:20:42+00:00</t>
+    <t>2024-10-31T16:32:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
+++ b/main/ig/StructureDefinition-pdsm-comprehensive-provide-document-bundle.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T16:32:22+00:00</t>
+    <t>2024-10-31T16:33:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
